--- a/data/trans_camb/P16A09-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-2.308090062617993</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.5400622031483383</v>
+        <v>-0.5400622031483386</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.7592766377272926</v>
@@ -664,7 +664,7 @@
         <v>-1.928580922371669</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.9738393665815321</v>
+        <v>-0.9738393665815325</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.051732873026176</v>
+        <v>-2.072554957966861</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.739539941193713</v>
+        <v>-3.704435381045545</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.398007402636444</v>
+        <v>-3.541530262084986</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.021910178712238</v>
+        <v>-5.020350790453836</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.973279867298248</v>
+        <v>-5.561831236712558</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.255679336550813</v>
+        <v>-3.69939374549622</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.432362171862276</v>
+        <v>-2.378502694583944</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.438598093013232</v>
+        <v>-3.482858645523485</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.515009285876692</v>
+        <v>-2.695808881074207</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.685708704725835</v>
+        <v>2.513149275920645</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.1915275288774139</v>
+        <v>-0.2253316197009417</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.08855217878860935</v>
+        <v>-0.01063826294693507</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1392298903070798</v>
+        <v>0.2080187050030736</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01995561569685191</v>
+        <v>-0.04535109223090928</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.709277612304386</v>
+        <v>1.716142698318038</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.028496524096077</v>
+        <v>0.8074489205724114</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.5469273481828705</v>
+        <v>-0.6826291339833795</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4083626581839159</v>
+        <v>0.3597700976275502</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.6557587064540309</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1534387663103435</v>
+        <v>-0.1534387663103436</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.2663470593463833</v>
@@ -769,7 +769,7 @@
         <v>-0.6765279370675484</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.3416136341836138</v>
+        <v>-0.341613634183614</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6272646653728067</v>
+        <v>-0.650806050819472</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.9425603086929033</v>
+        <v>-0.9477330078658371</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9020762947629443</v>
+        <v>-0.8982575347853293</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.9228831054521356</v>
+        <v>-0.915093596718684</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.9230489505797403</v>
+        <v>-0.9254293171636278</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6064140104614526</v>
+        <v>-0.6101029317474923</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6736243397819183</v>
+        <v>-0.6622295402092628</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8964946583336737</v>
+        <v>-0.8888800750722169</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6347535324660403</v>
+        <v>-0.6488430879118577</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.172218658753583</v>
+        <v>1.690431315505885</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1894242526761322</v>
+        <v>0.2441564913346039</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.167780108009064</v>
+        <v>0.2050951096695367</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3249082304914187</v>
+        <v>0.4042143618244308</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3374066825761146</v>
+        <v>0.1861969848158303</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8621782297726547</v>
+        <v>0.9891605115118531</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5945076269805106</v>
+        <v>0.4392950468684855</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2494653002682423</v>
+        <v>-0.2725037989377942</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2649192823801098</v>
+        <v>0.214241364727576</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.221424000914126</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1111289986794642</v>
+        <v>0.111128998679464</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1648677763309465</v>
@@ -878,7 +878,7 @@
         <v>-1.176322969842366</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.7950981353485712</v>
+        <v>0.7950981353485715</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.194874233244413</v>
+        <v>-1.162779826871648</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.899307408022151</v>
+        <v>-2.517871100694848</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.400627296690033</v>
+        <v>-1.49059588657463</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.194627612724696</v>
+        <v>-2.331528239132406</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.469504110183415</v>
+        <v>-3.561483946223977</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.8440282154290848</v>
+        <v>-0.9624531266191725</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.134325037696922</v>
+        <v>-1.162084688077708</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.646033198868074</v>
+        <v>-2.471457021948024</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.6457263399903236</v>
+        <v>-0.5576125108907158</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.177140150136001</v>
+        <v>2.126353219315352</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.4688751285843982</v>
+        <v>-0.4782999538977027</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.700584278996699</v>
+        <v>1.514978641945053</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.563305878041964</v>
+        <v>2.731117185830685</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8314965389889</v>
+        <v>0.8842299364150458</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.864021267468187</v>
+        <v>3.645358687086679</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.701754394808718</v>
+        <v>1.759922970975929</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.1180830822228423</v>
+        <v>-0.1107949714363048</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.107620828929187</v>
+        <v>2.203591880567625</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-1</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.09098314639002852</v>
+        <v>0.09098314639002839</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.07178265046701984</v>
@@ -983,7 +983,7 @@
         <v>-0.6673483083450901</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4510728849104331</v>
+        <v>0.4510728849104333</v>
       </c>
     </row>
     <row r="14">
@@ -994,29 +994,29 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6686236002801264</v>
+        <v>-0.6661063591343266</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>-0.7442068800011953</v>
+        <v>-0.7726307597168883</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6311385180398486</v>
+        <v>-0.6917506658767034</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8842288774666568</v>
+        <v>-0.9165556748834006</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2588936836599399</v>
+        <v>-0.2726811544813299</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.454553105484938</v>
+        <v>-0.5048403768822364</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.9275194033915042</v>
+        <v>-0.9360081493313505</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.265419155036742</v>
+        <v>-0.2381200502768606</v>
       </c>
     </row>
     <row r="15">
@@ -1027,29 +1027,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.566092844067937</v>
+        <v>4.428966678504359</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>4.609067708901698</v>
+        <v>3.131309512536604</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.859095183550043</v>
+        <v>2.65986881804587</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.809814764928385</v>
+        <v>1.304588412216565</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.414337433825578</v>
+        <v>3.07043309210525</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.701943972695318</v>
+        <v>1.572231610787547</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1455016051999788</v>
+        <v>0.09229782413879822</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.394145891232737</v>
+        <v>2.202873974787464</v>
       </c>
     </row>
     <row r="16">
@@ -1070,7 +1070,7 @@
         <v>-1.910961319814193</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.4272502418950858</v>
+        <v>-0.4272502418950861</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-2.772284254162618</v>
@@ -1099,31 +1099,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.352096033385985</v>
+        <v>-2.452641788635843</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.882163594395792</v>
+        <v>-3.83007610916362</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.367224930185637</v>
+        <v>-2.379541664228675</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.320996878044486</v>
+        <v>-8.231525134821084</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.681564877856566</v>
+        <v>-8.511888788564674</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.411998660684891</v>
+        <v>-3.825400961422378</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.8763479007767</v>
+        <v>-2.911090131547951</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.053152720723919</v>
+        <v>-4.036648357249923</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.658310492326869</v>
+        <v>-1.774914997075653</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.55621433587182</v>
+        <v>1.433802063070576</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.468645669788752</v>
+        <v>-0.4609088675886466</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.643482089194703</v>
+        <v>1.699232841763486</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.350645626680852</v>
+        <v>2.131977612856656</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.831427773221956</v>
+        <v>2.136293500951236</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.172180379037914</v>
+        <v>7.611439137185823</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8482736393987738</v>
+        <v>0.851300999641084</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.4327308325668571</v>
+        <v>-0.3902567486867235</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.441018864213959</v>
+        <v>2.482637104190016</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>-0.6973391504384451</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1559101786197893</v>
+        <v>-0.1559101786197895</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.4081210120715785</v>
@@ -1204,31 +1204,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6422542194058636</v>
+        <v>-0.674564697947197</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.9266598399796965</v>
+        <v>-0.9321419828468331</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6254936485619951</v>
+        <v>-0.6166923524665298</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8075206229108347</v>
+        <v>-0.7697662526367944</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8848859760167345</v>
+        <v>-0.8650373378902454</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4758828618689841</v>
+        <v>-0.4319397189560437</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6129015437711552</v>
+        <v>-0.6295821017125758</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.827439600490014</v>
+        <v>-0.8270490937719561</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3804038409843056</v>
+        <v>-0.3817927604370869</v>
       </c>
     </row>
     <row r="21">
@@ -1239,31 +1239,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.020760303049556</v>
+        <v>0.8369969767927391</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.0721947544817291</v>
+        <v>-0.1008566587788862</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9439014717210771</v>
+        <v>1.040991588514157</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4679663310929922</v>
+        <v>0.6837782869888218</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6261081406525655</v>
+        <v>0.8649615668664625</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.789806018546152</v>
+        <v>2.071185224417095</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3684720960392883</v>
+        <v>0.3454284599699513</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.05605215285833497</v>
+        <v>-0.09736452905080481</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9081870831674131</v>
+        <v>0.8951749294075148</v>
       </c>
     </row>
     <row r="22">
@@ -1293,7 +1293,7 @@
         <v>-2.124615366778975</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.5589095459311744</v>
+        <v>-0.558909545931175</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.603066611607975</v>
@@ -1302,7 +1302,7 @@
         <v>-2.218655723040435</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-1.263257996316671</v>
+        <v>-1.26325799631667</v>
       </c>
     </row>
     <row r="23">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.490927569855367</v>
+        <v>-3.479680737604967</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.690578389838281</v>
+        <v>-3.616977207680534</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.176662527677027</v>
+        <v>-3.22193117502064</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.849890936241224</v>
+        <v>-2.747319992574646</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.806520190965897</v>
+        <v>-3.797404160889765</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.410599613382158</v>
+        <v>-2.35558685796045</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.739085040555759</v>
+        <v>-2.791668554206454</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.198435079749082</v>
+        <v>-3.396390360406418</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.45432039779625</v>
+        <v>-2.489533236814451</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.5946087432450564</v>
+        <v>-0.5227532711207362</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.8709004784058049</v>
+        <v>-0.6926083901653113</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.3920406797039849</v>
+        <v>-0.484674141497861</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7412291761767446</v>
+        <v>0.9407475234072495</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.4158969870630747</v>
+        <v>-0.6039696492278097</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.013931162931765</v>
+        <v>1.153541667052028</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.5102435110893779</v>
+        <v>-0.4490934229450871</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.9982970952795652</v>
+        <v>-1.18278313496135</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.2057350386369614</v>
+        <v>-0.2128674228225968</v>
       </c>
     </row>
     <row r="25">
@@ -1398,7 +1398,7 @@
         <v>-0.535521421985969</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1408763390676031</v>
+        <v>-0.1408763390676032</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.3818917735320173</v>
@@ -1407,7 +1407,7 @@
         <v>-0.5285409619248392</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3009406054299709</v>
+        <v>-0.3009406054299708</v>
       </c>
     </row>
     <row r="26">
@@ -1418,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6665015151577599</v>
+        <v>-0.675187077432197</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7139717942595094</v>
+        <v>-0.7109470729054627</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6170226523399364</v>
+        <v>-0.6090612058539161</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5714579226854281</v>
+        <v>-0.5673656057479677</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7652963735724693</v>
+        <v>-0.7704611795392713</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4707076463655173</v>
+        <v>-0.4561150505408847</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5760141366728465</v>
+        <v>-0.5805513991853909</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6736032259835047</v>
+        <v>-0.680226059565613</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.485047220105192</v>
+        <v>-0.4935655369264868</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1372401741551919</v>
+        <v>-0.1242069191319505</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2051515435016077</v>
+        <v>-0.2051898459750762</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.08865474269646072</v>
+        <v>-0.116418817949785</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2798725345570082</v>
+        <v>0.3410668181874624</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.09213566760723456</v>
+        <v>-0.1841797026873273</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3647038157844463</v>
+        <v>0.4128911871873698</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1314424509367467</v>
+        <v>-0.1195598969110365</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.292125941169784</v>
+        <v>-0.3121623086369288</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.05086510161878294</v>
+        <v>-0.0539432993034125</v>
       </c>
     </row>
     <row r="28">
@@ -1516,7 +1516,7 @@
         <v>-0.08089380205275054</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.8882441370163647</v>
+        <v>0.8882441370163634</v>
       </c>
     </row>
     <row r="29">
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.734409447862655</v>
+        <v>-2.757757553076159</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.559231278506332</v>
+        <v>-2.624450078320249</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.643005761273875</v>
+        <v>-2.603853597046544</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.9084029218178375</v>
+        <v>-1.048361311129087</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.832452735873529</v>
+        <v>-1.989581785758733</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.4733614549217395</v>
+        <v>-0.6825581549899531</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.086786602393556</v>
+        <v>-0.9802099924507717</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.784880172278048</v>
+        <v>-1.93749401868068</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.7474491057060094</v>
+        <v>-0.8797842444681859</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.31633624621464</v>
+        <v>1.50893394108509</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.239991511951485</v>
+        <v>1.15179378200624</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.244723486783685</v>
+        <v>1.058226735958617</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.496068233697231</v>
+        <v>4.319944064968018</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.426450384273865</v>
+        <v>3.468864714548257</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.447874161692559</v>
+        <v>4.117904884268393</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.61317765393593</v>
+        <v>2.718485545087541</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.589161725079078</v>
+        <v>1.643837857622866</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.452404448288306</v>
+        <v>2.461455802109942</v>
       </c>
     </row>
     <row r="31">
@@ -1621,7 +1621,7 @@
         <v>-0.01896698801171114</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.2082646070619357</v>
+        <v>0.2082646070619354</v>
       </c>
     </row>
     <row r="32">
@@ -1632,31 +1632,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6796006573652573</v>
+        <v>-0.6805598620972017</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5955617669622426</v>
+        <v>-0.6421010881305872</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6300747023322887</v>
+        <v>-0.6373367555559625</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1362857064801325</v>
+        <v>-0.1655304002845141</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2922627860489014</v>
+        <v>-0.311387620917641</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.07549893056758405</v>
+        <v>-0.1016361823446018</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2184169279926103</v>
+        <v>-0.1988893045433776</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3358480176916059</v>
+        <v>-0.3538484284381742</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1378820025854571</v>
+        <v>-0.1630248187557553</v>
       </c>
     </row>
     <row r="33">
@@ -1667,31 +1667,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8685168824360726</v>
+        <v>1.011629239451003</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8094492137625847</v>
+        <v>0.7507781888895981</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8928360784699161</v>
+        <v>0.8691882495242584</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.216509694934929</v>
+        <v>1.090845971187976</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9529144233032562</v>
+        <v>0.9425545352183772</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.253774692772451</v>
+        <v>1.148663350917059</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8039447247842163</v>
+        <v>0.8528685353159786</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5201230677927742</v>
+        <v>0.502543994799567</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7921420807177254</v>
+        <v>0.7641857631898786</v>
       </c>
     </row>
     <row r="34">
@@ -1721,7 +1721,7 @@
         <v>-1.160943785210535</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.8302788728489343</v>
+        <v>0.8302788728489316</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>2.442190517029466</v>
@@ -1730,7 +1730,7 @@
         <v>-1.08781084817209</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.4116551135203157</v>
+        <v>0.411655113520315</v>
       </c>
     </row>
     <row r="35">
@@ -1741,31 +1741,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.785481376730023</v>
+        <v>-1.492101706864431</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.488278658085323</v>
+        <v>-1.493177761790327</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.545049803379196</v>
+        <v>-1.760724340664579</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.9952237916655708</v>
+        <v>0.8219286383724994</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.144646957272858</v>
+        <v>-3.056007152799902</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.128574613496387</v>
+        <v>-1.204087184011927</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.5988141040514887</v>
+        <v>0.4978385091633423</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.842836822541327</v>
+        <v>-2.687284833237521</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.098432172736524</v>
+        <v>-1.161122505446063</v>
       </c>
     </row>
     <row r="36">
@@ -1785,22 +1785,22 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.666363805289802</v>
+        <v>5.491817311727798</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.974230010125904</v>
+        <v>0.8542481285987437</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.029052502086085</v>
+        <v>2.858592823068223</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.464882700824808</v>
+        <v>4.225909115489812</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.3851640156353449</v>
+        <v>0.4949263832894467</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.124725068630352</v>
+        <v>1.922497881840767</v>
       </c>
     </row>
     <row r="37">
@@ -1826,7 +1826,7 @@
         <v>-0.1740867242736755</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1245026081789984</v>
+        <v>0.124502608178998</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4488890086319789</v>
@@ -1835,7 +1835,7 @@
         <v>-0.1999460442623567</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.07566463571039643</v>
+        <v>0.07566463571039629</v>
       </c>
     </row>
     <row r="38">
@@ -1849,22 +1849,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>0.1237286245047914</v>
+        <v>0.1030937342462272</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4121771849117479</v>
+        <v>-0.4065691744481644</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1509701010139214</v>
+        <v>-0.1571001126792699</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09393611269293546</v>
+        <v>0.07708680017459033</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4539334428490988</v>
+        <v>-0.4265152094146203</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1835618282737999</v>
+        <v>-0.1839139775640705</v>
       </c>
     </row>
     <row r="39">
@@ -1878,22 +1878,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.9985007274992636</v>
+        <v>0.9920142396195525</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1718505178316966</v>
+        <v>0.1552121686452574</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5288129727826173</v>
+        <v>0.4909594265004342</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.9751458832289278</v>
+        <v>0.9142704499907059</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.07977000967976823</v>
+        <v>0.1180884043700079</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.4637678962971954</v>
+        <v>0.4213010241352759</v>
       </c>
     </row>
     <row r="40">
@@ -1914,7 +1914,7 @@
         <v>-1.580002593407925</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-1.060184392428987</v>
+        <v>-1.060184392428988</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.7611612991077494</v>
@@ -1923,7 +1923,7 @@
         <v>-1.326795331288348</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0.4031707063084901</v>
+        <v>0.4031707063084894</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.01695377622649014</v>
@@ -1932,7 +1932,7 @@
         <v>-1.445648882042745</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-0.2971597397217682</v>
+        <v>-0.2971597397217668</v>
       </c>
     </row>
     <row r="41">
@@ -1943,31 +1943,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.569084429002641</v>
+        <v>-1.623668523370918</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.220522888289223</v>
+        <v>-2.30916043529299</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.774070379787299</v>
+        <v>-1.829008622450127</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.389531540641047</v>
+        <v>-0.2858742676355687</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.387356652158234</v>
+        <v>-2.292927368793682</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.5355239767589324</v>
+        <v>-0.4847423363452776</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.6921997766483116</v>
+        <v>-0.7017850920136846</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.143763414925921</v>
+        <v>-2.069018800129464</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.9473846958097523</v>
+        <v>-0.877000384785849</v>
       </c>
     </row>
     <row r="42">
@@ -1978,31 +1978,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.003048721942042531</v>
+        <v>-0.1183949086741111</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.875454375693821</v>
+        <v>-0.8793566455614257</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.3426975456183799</v>
+        <v>-0.3286683786101286</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.904028526601415</v>
+        <v>1.915749371772132</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.3976866360114991</v>
+        <v>-0.3602509594672389</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.436288945022536</v>
+        <v>1.435899153733742</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.6417134355605817</v>
+        <v>0.6354260912496774</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.847846995130179</v>
+        <v>-0.8757998868532491</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.2706308527563885</v>
+        <v>0.3290527411639364</v>
       </c>
     </row>
     <row r="43">
@@ -2019,7 +2019,7 @@
         <v>-0.5420472050977317</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.3637145845215718</v>
+        <v>-0.363714584521572</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1499019834743665</v>
@@ -2028,7 +2028,7 @@
         <v>-0.261297115417974</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.07939984419235255</v>
+        <v>0.07939984419235241</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.004223631374346973</v>
@@ -2037,7 +2037,7 @@
         <v>-0.3601491427582348</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.07403030352144012</v>
+        <v>-0.07403030352143977</v>
       </c>
     </row>
     <row r="44">
@@ -2048,31 +2048,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4713764589391257</v>
+        <v>-0.4909947035333164</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6840595455104926</v>
+        <v>-0.6839895914819539</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5287300188692572</v>
+        <v>-0.5421940173446755</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.07789131237941324</v>
+        <v>-0.04947192662571569</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4245615467420659</v>
+        <v>-0.4154947751828801</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.09756320103715982</v>
+        <v>-0.08942025575770852</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1565058404082915</v>
+        <v>-0.1600553010650277</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4893780822151844</v>
+        <v>-0.4754398044978202</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.2125272093554347</v>
+        <v>-0.2048133240630779</v>
       </c>
     </row>
     <row r="45">
@@ -2083,31 +2083,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.002546680253297651</v>
+        <v>-0.04767102094535344</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.3551112236326999</v>
+        <v>-0.3463315656108147</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1260404411339887</v>
+        <v>-0.1307504619019883</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4184341447742786</v>
+        <v>0.4244100567521499</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.08230122507298551</v>
+        <v>-0.08135753681668931</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3122694297995469</v>
+        <v>0.3216933774734218</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1731926868150869</v>
+        <v>0.1686201423824855</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.2305326153598757</v>
+        <v>-0.2356835810911884</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.074297862902323</v>
+        <v>0.09043700405241936</v>
       </c>
     </row>
     <row r="46">
